--- a/配置表/功能表.xlsx
+++ b/配置表/功能表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>1,9</t>
+  </si>
+  <si>
+    <t>1,10</t>
   </si>
 </sst>
 </file>
@@ -1219,10 +1222,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1363,6 +1366,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/功能表.xlsx
+++ b/配置表/功能表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>1,9</t>
-  </si>
-  <si>
-    <t>1,10</t>
   </si>
 </sst>
 </file>
@@ -1222,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1366,17 +1363,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/功能表.xlsx
+++ b/配置表/功能表.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="17260"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FunctionDef" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t>1,9</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>1,11</t>
+  </si>
+  <si>
+    <t>1,12</t>
+  </si>
+  <si>
+    <t>1,13</t>
+  </si>
+  <si>
+    <t>1,14</t>
+  </si>
+  <si>
+    <t>1,15</t>
+  </si>
+  <si>
+    <t>1,16</t>
   </si>
 </sst>
 </file>
@@ -1219,10 +1240,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1363,6 +1384,83 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/配置表/功能表.xlsx
+++ b/配置表/功能表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>1,16</t>
+  </si>
+  <si>
+    <t>1,17</t>
+  </si>
+  <si>
+    <t>1,18</t>
+  </si>
+  <si>
+    <t>1,19</t>
   </si>
 </sst>
 </file>
@@ -1240,10 +1249,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="C19" sqref="C19:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1461,6 +1470,39 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
